--- a/html/cms/static/file/薪资导入模板.xlsx
+++ b/html/cms/static/file/薪资导入模板.xlsx
@@ -1,132 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0F2D6E-8577-4DBF-9B52-347B15E2856F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AQUARIUS卡妙\Desktop\模板\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F931D-3AD4-49AF-96BB-2A900AE7F3D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3576" yWindow="36" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>试用期基础工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>试用期职务津贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>试用期职称津贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>试用期工龄工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>试用期学历津贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>试用期工作性补贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>试用期绩效奖金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>试用期单项奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转正期基础工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转正期职务津贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转正期职称津贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转正期工龄工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转正期学历津贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转正期工作性补贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转正期绩效奖金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转正期单项奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前基础工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前职务津贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前职称津贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前工龄工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前学历津贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前工作性补贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前绩效奖金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前单项奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请与员工基本信息表保持一直</t>
-  </si>
-  <si>
-    <t>插入数据前，请删除当前行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
@@ -137,32 +105,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -189,17 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -260,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -295,7 +246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -470,23 +421,18 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
@@ -514,29 +460,29 @@
     <col min="26" max="26" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
@@ -593,19 +539,15 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:Z1048576" xr:uid="{7BD86E60-EDD2-450E-AECF-E8CDD1515D4D}">
+      <formula1>0</formula1>
+      <formula2>999999999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/html/cms/static/file/薪资导入模板.xlsx
+++ b/html/cms/static/file/薪资导入模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AQUARIUS卡妙\Desktop\模板\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F931D-3AD4-49AF-96BB-2A900AE7F3D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>工号</t>
   </si>
   <si>
+    <t>姓名</t>
+  </si>
+  <si>
     <t>试用期基础工资</t>
   </si>
   <si>
@@ -97,15 +94,26 @@
     <t>当前单项奖励</t>
   </si>
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>NJ000000</t>
+  </si>
+  <si>
+    <t>张明</t>
+  </si>
+  <si>
+    <t>红色字体列为必填，参考案例请勿删除</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,28 +122,359 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -143,26 +482,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -420,135 +1047,218 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.4416666666667" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.5583333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.4416666666667" customWidth="1"/>
+    <col min="10" max="10" width="18.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="16.2166666666667" customWidth="1"/>
+    <col min="12" max="12" width="12.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.4416666666667" customWidth="1"/>
+    <col min="14" max="14" width="15.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.6666666666667" customWidth="1"/>
     <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="16.21875" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" customWidth="1"/>
+    <col min="17" max="17" width="16.2166666666667" customWidth="1"/>
+    <col min="18" max="18" width="19.8833333333333" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="15.88671875" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.8833333333333" customWidth="1"/>
+    <col min="21" max="21" width="14.3333333333333" customWidth="1"/>
+    <col min="22" max="22" width="14.6666666666667" customWidth="1"/>
     <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" customWidth="1"/>
+    <col min="24" max="24" width="15.3333333333333" customWidth="1"/>
+    <col min="25" max="25" width="13.3333333333333" customWidth="1"/>
+    <col min="26" max="26" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:27">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>500</v>
+      </c>
+      <c r="G2" s="1">
+        <v>500</v>
+      </c>
+      <c r="H2" s="1">
+        <v>300</v>
+      </c>
+      <c r="I2" s="1">
+        <v>300</v>
+      </c>
+      <c r="J2" s="1">
+        <v>300</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>500</v>
+      </c>
+      <c r="M2" s="1">
+        <v>500</v>
+      </c>
+      <c r="N2" s="1">
+        <v>500</v>
+      </c>
+      <c r="O2" s="1">
+        <v>500</v>
+      </c>
+      <c r="P2" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>500</v>
+      </c>
+      <c r="R2" s="1">
+        <v>500</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="T2" s="1">
+        <v>500</v>
+      </c>
+      <c r="U2" s="1">
+        <v>500</v>
+      </c>
+      <c r="V2" s="1">
+        <v>500</v>
+      </c>
+      <c r="W2" s="1">
+        <v>500</v>
+      </c>
+      <c r="X2" s="1">
+        <v>500</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>500</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>500</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:Z1048576" xr:uid="{7BD86E60-EDD2-450E-AECF-E8CDD1515D4D}">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:Z$1048576">
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>